--- a/files/Ресурсы/Main.xlsx
+++ b/files/Ресурсы/Main.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\homework\Мастер_пол_2025\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\homework\MasterFloorApp\MasterFloorApp\files\Ресурсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1830" windowWidth="22110" windowHeight="10110" tabRatio="805" activeTab="11"/>
+    <workbookView xWindow="855" yWindow="1830" windowWidth="22110" windowHeight="10110" tabRatio="805" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="147">
   <si>
     <t>Паркетная доска</t>
   </si>
@@ -216,9 +216,6 @@
     <t>IdPartner</t>
   </si>
   <si>
-    <t>Partner</t>
-  </si>
-  <si>
     <t>ProductAmount</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
   </si>
   <si>
     <t>RateProduct</t>
-  </si>
-  <si>
-    <t>PartnerType</t>
   </si>
   <si>
     <t>IdPartnerType</t>
@@ -896,104 +890,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +1010,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
@@ -1024,42 +1018,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1093,42 +1087,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1163,42 +1157,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1232,42 +1226,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1303,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
@@ -1323,7 +1317,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
@@ -1337,7 +1331,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>33</v>
@@ -1351,7 +1345,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>36</v>
@@ -1365,7 +1359,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>39</v>
@@ -1401,57 +1395,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1476,33 +1470,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="6">
         <v>45008</v>
@@ -1510,16 +1504,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" s="6">
         <v>45278</v>
@@ -1527,16 +1521,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="6">
         <v>45450</v>
@@ -1544,16 +1538,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="6">
         <v>44897</v>
@@ -1561,16 +1555,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="6">
         <v>45063</v>
@@ -1578,16 +1572,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="6">
         <v>45450</v>
@@ -1595,16 +1589,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="6">
         <v>45474</v>
@@ -1612,16 +1606,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="6">
         <v>44948</v>
@@ -1629,16 +1623,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="6">
         <v>45478</v>
@@ -1646,16 +1640,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="6">
         <v>45005</v>
@@ -1663,16 +1657,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" s="6">
         <v>45363</v>
@@ -1680,16 +1674,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="6">
         <v>45426</v>
@@ -1697,16 +1691,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="6">
         <v>45188</v>
@@ -1714,16 +1708,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="6">
         <v>45240</v>
@@ -1731,16 +1725,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E16" s="6">
         <v>45397</v>
@@ -1748,16 +1742,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17" s="6">
         <v>45455</v>
@@ -1786,15 +1780,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1802,7 +1796,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1810,7 +1804,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1818,7 +1812,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1837,7 +1831,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,10 +1846,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
@@ -1864,7 +1858,7 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
@@ -1873,7 +1867,7 @@
         <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
         <v>54</v>
@@ -1881,147 +1875,147 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2046,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>53</v>
@@ -2060,42 +2054,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2111,22 +2105,25 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2142,7 +2139,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2150,7 +2147,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -2158,7 +2155,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2177,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,12 +2188,12 @@
         <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -2204,7 +2201,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2262,7 +2259,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>

--- a/files/Ресурсы/Main.xlsx
+++ b/files/Ресурсы/Main.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\homework\MasterFloorApp\MasterFloorApp\files\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diploma\masterFLOOOR\Homework\files\Ресурсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7A70D-8C2A-44E8-AC57-A887FEF78A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1830" windowWidth="22110" windowHeight="10110" tabRatio="805" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="805" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -32,15 +33,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -195,9 +187,6 @@
     <t>AreaId</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
     <t>HouseNumber</t>
   </si>
   <si>
@@ -487,12 +476,15 @@
   </si>
   <si>
     <t>город Юрга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndexValue </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -872,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -890,108 +882,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>101</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="B2:E6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E6">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -999,65 +991,65 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,11 +1057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,46 +1079,46 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
     <sortCondition ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1134,11 +1126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,46 +1149,46 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,11 +1196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,46 +1218,46 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1273,11 +1265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1295,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
@@ -1317,7 +1309,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
@@ -1331,7 +1323,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>33</v>
@@ -1345,7 +1337,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>36</v>
@@ -1359,7 +1351,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>39</v>
@@ -1372,7 +1364,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1395,57 +1387,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1470,33 +1462,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="6">
         <v>45008</v>
@@ -1504,16 +1496,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="6">
         <v>45278</v>
@@ -1521,16 +1513,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="6">
         <v>45450</v>
@@ -1538,16 +1530,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="6">
         <v>44897</v>
@@ -1555,16 +1547,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="6">
         <v>45063</v>
@@ -1572,16 +1564,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="E7" s="6">
         <v>45450</v>
@@ -1589,16 +1581,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="E8" s="6">
         <v>45474</v>
@@ -1606,16 +1598,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="E9" s="6">
         <v>44948</v>
@@ -1623,16 +1615,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="E10" s="6">
         <v>45478</v>
@@ -1640,16 +1632,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E11" s="6">
         <v>45005</v>
@@ -1657,16 +1649,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E12" s="6">
         <v>45363</v>
@@ -1674,16 +1666,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E13" s="6">
         <v>45426</v>
@@ -1691,16 +1683,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E14" s="6">
         <v>45188</v>
@@ -1708,16 +1700,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="E15" s="6">
         <v>45240</v>
@@ -1725,16 +1717,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="6">
         <v>45397</v>
@@ -1742,16 +1734,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E17" s="6">
         <v>45455</v>
@@ -1764,7 +1756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1780,15 +1772,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1796,7 +1788,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1804,7 +1796,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1812,14 +1804,14 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B5">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1827,11 +1819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,185 +1838,185 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -2032,11 +2024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,54 +2038,54 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2107,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>43</v>
@@ -2123,7 +2115,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2131,7 +2123,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2139,7 +2131,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2147,7 +2139,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -2155,14 +2147,14 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2171,10 +2163,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2185,7 +2177,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -2193,7 +2185,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -2201,7 +2193,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -2209,7 +2201,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -2217,7 +2209,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
@@ -2225,14 +2217,14 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B17">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2240,11 +2232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,10 +2248,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
@@ -2271,7 +2263,7 @@
         <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/files/Ресурсы/Main.xlsx
+++ b/files/Ресурсы/Main.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diploma\masterFLOOOR\Homework\files\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\Новая папка (2)\Homework\files\Ресурсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7A70D-8C2A-44E8-AC57-A887FEF78A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="805" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -484,7 +483,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -864,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -983,7 +982,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E6">
+  <sortState ref="B2:E6">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -991,10 +990,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1049,7 +1048,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+  <sortState ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1057,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1118,7 +1117,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+  <sortState ref="B2:B6">
     <sortCondition ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1126,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1188,7 +1187,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+  <sortState ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,7 +1195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1257,7 +1256,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+  <sortState ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1265,7 +1264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1364,7 +1363,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+  <sortState ref="A2:D6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1372,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1446,15 +1445,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -1756,7 +1757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1811,7 +1812,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B5">
+  <sortState ref="B2:B5">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1819,7 +1820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2012,11 +2013,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -2024,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2086,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+  <sortState ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2093,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2154,7 +2155,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+  <sortState ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2163,7 +2164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2224,7 +2225,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B17">
+  <sortState ref="B2:B17">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2232,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
